--- a/Employee_Reports28/Cristopher Cruz Q0266.xlsx
+++ b/Employee_Reports28/Cristopher Cruz Q0266.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -574,11 +571,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -623,11 +620,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -672,11 +669,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -687,51 +684,51 @@
       <c r="K5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v/>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>01-Oct-2024</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>01-Oct-2025</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr"/>
+      <c r="H6" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J6" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
@@ -766,11 +763,11 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>-320</v>
+        <v>-328</v>
       </c>
       <c r="I7" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="4" t="inlineStr">
@@ -806,7 +803,7 @@
     <col width="23" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -866,7 +863,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -891,7 +888,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
